--- a/xlsxwriter/test/comparison/xlsx_files/optimize03.xlsx
+++ b/xlsxwriter/test/comparison/xlsx_files/optimize03.xlsx
@@ -394,7 +394,7 @@
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40" customHeight="1">
+    <row r="1" ht="39.75" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Features of Excel::Writer::XLSX</t>
